--- a/data/trans_orig/P1435_2011_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1435_2011_2023-Dificultad-trans_orig.xlsx
@@ -513,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -874,576 +874,652 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0</v>
+        <v>978</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
+        <v>1043935</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1043935</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1043935</v>
+      </c>
       <c r="G6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6" t="inlineStr"/>
-      <c r="I6" s="6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="J6" s="5" t="n">
-        <v>0</v>
+        <v>1031</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
+        <v>1119928</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>1119928</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>1119928</v>
+      </c>
       <c r="N6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6" t="inlineStr"/>
-      <c r="P6" s="6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Q6" s="5" t="n">
-        <v>0</v>
+        <v>2009</v>
       </c>
       <c r="R6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5" t="inlineStr"/>
-      <c r="T6" s="5" t="inlineStr"/>
+        <v>2163863</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>2163863</v>
+      </c>
+      <c r="T6" s="5" t="n">
+        <v>2163863</v>
+      </c>
       <c r="U6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="6" t="inlineStr"/>
-      <c r="W6" s="6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="V6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Con cierta/alguna dificultad</t>
+        </is>
+      </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>978</v>
+        <v>920</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1043935</v>
+        <v>972979</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1043935</v>
+        <v>966766</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1043935</v>
+        <v>976031</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1</v>
+        <v>0.995809927389776</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1</v>
+        <v>0.9894514014344168</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1</v>
+        <v>0.9989334622976058</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>1031</v>
+        <v>989</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>1119928</v>
+        <v>1059940</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1119928</v>
+        <v>1044745</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1119928</v>
+        <v>1069924</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1</v>
+        <v>0.9686344700802119</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>1</v>
+        <v>0.954748430149123</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>1</v>
+        <v>0.9777582657647673</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>2009</v>
+        <v>1909</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>2163863</v>
+        <v>2032919</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2163863</v>
+        <v>2015881</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2163863</v>
+        <v>2044106</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>1</v>
+        <v>0.9814534493888344</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>1</v>
+        <v>0.9732278830321283</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>1</v>
+        <v>0.9868542200097807</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Con cierta/alguna dificultad</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>920</v>
+        <v>4</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>972979</v>
+        <v>4094</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>966766</v>
+        <v>1042</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>976031</v>
+        <v>10307</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.995809927389776</v>
+        <v>0.004190072610223996</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9894514014344168</v>
+        <v>0.001066537702394193</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9989334622976058</v>
+        <v>0.01054859856558323</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>989</v>
+        <v>31</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>1059940</v>
+        <v>34322</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1044745</v>
+        <v>24338</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1069924</v>
+        <v>49517</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9686344700802119</v>
+        <v>0.03136552991978812</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.954748430149123</v>
+        <v>0.02224173423523267</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9777582657647673</v>
+        <v>0.04525156985087645</v>
       </c>
       <c r="Q8" s="5" t="n">
-        <v>1909</v>
+        <v>35</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>2032919</v>
+        <v>38416</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2015881</v>
+        <v>27229</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2044106</v>
+        <v>55454</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9814534493888344</v>
+        <v>0.01854655061116565</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9732278830321283</v>
+        <v>0.01314577999021935</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9868542200097807</v>
+        <v>0.0267721169678717</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4</v>
+        <v>924</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4094</v>
+        <v>977073</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1042</v>
+        <v>977073</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10307</v>
+        <v>977073</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.004190072610223996</v>
+        <v>1</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.001066537702394193</v>
+        <v>1</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01054859856558323</v>
+        <v>1</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>31</v>
+        <v>1020</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>34322</v>
+        <v>1094262</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>24338</v>
+        <v>1094262</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>49517</v>
+        <v>1094262</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.03136552991978812</v>
+        <v>1</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02224173423523267</v>
+        <v>1</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04525156985087645</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="5" t="n">
-        <v>35</v>
+        <v>1944</v>
       </c>
       <c r="R9" s="5" t="n">
-        <v>38416</v>
+        <v>2071335</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>27229</v>
+        <v>2071335</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>55454</v>
+        <v>2071335</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.01854655061116565</v>
+        <v>1</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01314577999021935</v>
+        <v>1</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0267721169678717</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Con cierta/alguna facilidad</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0</v>
+        <v>828</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
+        <v>883147</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>878205</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>885115</v>
+      </c>
       <c r="G10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6" t="inlineStr"/>
-      <c r="I10" s="6" t="inlineStr"/>
+        <v>0.9977764467964277</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.9921933665134504</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="J10" s="5" t="n">
-        <v>0</v>
+        <v>788</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
+        <v>840153</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>828402</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>851259</v>
+      </c>
       <c r="N10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6" t="inlineStr"/>
-      <c r="P10" s="6" t="inlineStr"/>
+        <v>0.9593020185755623</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>0.9458848923330315</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>0.9719833309716072</v>
+      </c>
       <c r="Q10" s="5" t="n">
-        <v>0</v>
+        <v>1616</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="5" t="inlineStr"/>
-      <c r="T10" s="5" t="inlineStr"/>
+        <v>1723300</v>
+      </c>
+      <c r="S10" s="5" t="n">
+        <v>1709436</v>
+      </c>
+      <c r="T10" s="5" t="n">
+        <v>1734473</v>
+      </c>
       <c r="U10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="6" t="inlineStr"/>
-      <c r="W10" s="6" t="inlineStr"/>
+        <v>0.9786410424211919</v>
+      </c>
+      <c r="V10" s="6" t="n">
+        <v>0.9707677997446703</v>
+      </c>
+      <c r="W10" s="6" t="n">
+        <v>0.9849863656499679</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1968</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>6910</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.002223553203572236</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.007806633486549686</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>35643</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>24537</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>47394</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>0.04069798142443769</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>0.02801666902839291</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>0.05411510766696847</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>37611</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <v>26438</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>51475</v>
+      </c>
+      <c r="U11" s="6" t="n">
+        <v>0.02135895757880808</v>
+      </c>
+      <c r="V11" s="6" t="n">
+        <v>0.01501363435003218</v>
+      </c>
+      <c r="W11" s="6" t="n">
+        <v>0.02923220025532973</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" s="5" t="n">
-        <v>924</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>977073</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>977073</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>977073</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>1094262</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>1094262</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>1094262</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5" t="n">
-        <v>1944</v>
-      </c>
-      <c r="R11" s="5" t="n">
-        <v>2071335</v>
-      </c>
-      <c r="S11" s="5" t="n">
-        <v>2071335</v>
-      </c>
-      <c r="T11" s="5" t="n">
-        <v>2071335</v>
-      </c>
-      <c r="U11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Con cierta/alguna facilidad</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="C12" s="5" t="n">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>883147</v>
+        <v>885115</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>878205</v>
+        <v>885115</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>885115</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9977764467964277</v>
+        <v>1</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9921933665134504</v>
+        <v>1</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>788</v>
+        <v>821</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>840153</v>
+        <v>875796</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>828402</v>
+        <v>875796</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>851259</v>
+        <v>875796</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.9593020185755623</v>
+        <v>1</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9458848923330315</v>
+        <v>1</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9719833309716072</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="5" t="n">
-        <v>1616</v>
+        <v>1651</v>
       </c>
       <c r="R12" s="5" t="n">
-        <v>1723300</v>
+        <v>1760911</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1709436</v>
+        <v>1760911</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1734473</v>
+        <v>1760911</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.9786410424211919</v>
+        <v>1</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9707677997446703</v>
+        <v>1</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9849863656499679</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Con facilidad</t>
+        </is>
+      </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>2</v>
+        <v>460</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1968</v>
+        <v>502082</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0</v>
+        <v>498271</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6910</v>
+        <v>503023</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.002223553203572236</v>
+        <v>0.9981290152333512</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0</v>
+        <v>0.9905522815661854</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.007806633486549686</v>
+        <v>1</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>33</v>
+        <v>398</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>35643</v>
+        <v>437186</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24537</v>
+        <v>427586</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47394</v>
+        <v>444393</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04069798142443769</v>
+        <v>0.965653731857802</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02801666902839291</v>
+        <v>0.9444497489038607</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05411510766696847</v>
+        <v>0.9815724349658915</v>
       </c>
       <c r="Q13" s="5" t="n">
-        <v>35</v>
+        <v>858</v>
       </c>
       <c r="R13" s="5" t="n">
-        <v>37611</v>
+        <v>939267</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26438</v>
+        <v>929780</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>51475</v>
+        <v>946548</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02135895757880808</v>
+        <v>0.9827457146481706</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01501363435003218</v>
+        <v>0.9728199502780329</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02923220025532973</v>
+        <v>0.9903641872466259</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>941</v>
+      </c>
+      <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="F14" s="5" t="n">
+        <v>4752</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.001870984766648812</v>
+      </c>
+      <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6" t="inlineStr"/>
-      <c r="I14" s="6" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>0.009447718433814685</v>
+      </c>
       <c r="J14" s="5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
+        <v>15550</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>8343</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>25150</v>
+      </c>
       <c r="N14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6" t="inlineStr"/>
-      <c r="P14" s="6" t="inlineStr"/>
+        <v>0.03434626814219798</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>0.01842756503410846</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>0.05555025109613927</v>
+      </c>
       <c r="Q14" s="5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" s="5" t="inlineStr"/>
-      <c r="T14" s="5" t="inlineStr"/>
+        <v>16491</v>
+      </c>
+      <c r="S14" s="5" t="n">
+        <v>9210</v>
+      </c>
+      <c r="T14" s="5" t="n">
+        <v>25978</v>
+      </c>
       <c r="U14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" s="6" t="inlineStr"/>
-      <c r="W14" s="6" t="inlineStr"/>
+        <v>0.0172542853518294</v>
+      </c>
+      <c r="V14" s="6" t="n">
+        <v>0.009635812753374188</v>
+      </c>
+      <c r="W14" s="6" t="n">
+        <v>0.02718004972196738</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -1453,16 +1529,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>830</v>
+        <v>461</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>885115</v>
+        <v>503023</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>885115</v>
+        <v>503023</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>885115</v>
+        <v>503023</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>1</v>
@@ -1474,16 +1550,16 @@
         <v>1</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>821</v>
+        <v>412</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>875796</v>
+        <v>452736</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>875796</v>
+        <v>452736</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>875796</v>
+        <v>452736</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>1</v>
@@ -1495,16 +1571,16 @@
         <v>1</v>
       </c>
       <c r="Q15" s="5" t="n">
-        <v>1651</v>
+        <v>873</v>
       </c>
       <c r="R15" s="5" t="n">
-        <v>1760911</v>
+        <v>955758</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1760911</v>
+        <v>955758</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1760911</v>
+        <v>955758</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>1</v>
@@ -1519,7 +1595,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Con facilidad</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1528,67 +1604,67 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>460</v>
+        <v>3182</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>502082</v>
+        <v>3398131</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>498271</v>
+        <v>3390184</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>503023</v>
+        <v>3403237</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9981290152333512</v>
+        <v>0.9967691835180658</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9905522815661854</v>
+        <v>0.994438090757946</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>1</v>
+        <v>0.9982669694190631</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>398</v>
+        <v>3168</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>437186</v>
+        <v>3415969</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>427586</v>
+        <v>3391107</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>444393</v>
+        <v>3436811</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.965653731857802</v>
+        <v>0.9642216659026113</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9444497489038607</v>
+        <v>0.9572039286832633</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9815724349658915</v>
+        <v>0.9701045360913222</v>
       </c>
       <c r="Q16" s="5" t="n">
-        <v>858</v>
+        <v>6350</v>
       </c>
       <c r="R16" s="5" t="n">
-        <v>939267</v>
+        <v>6814100</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>929780</v>
+        <v>6786499</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>946548</v>
+        <v>6836028</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9827457146481706</v>
+        <v>0.9801827328227799</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9728199502780329</v>
+        <v>0.9762124062960198</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9903641872466259</v>
+        <v>0.9833370177787565</v>
       </c>
     </row>
     <row r="17">
@@ -1599,453 +1675,142 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>941</v>
+        <v>11014</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0</v>
+        <v>5908</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4752</v>
+        <v>18961</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.001870984766648812</v>
+        <v>0.003230816481934204</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0</v>
+        <v>0.001733030580936886</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.009447718433814685</v>
+        <v>0.00556190924205387</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>15550</v>
+        <v>126753</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8343</v>
+        <v>105911</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25150</v>
+        <v>151615</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.03434626814219798</v>
+        <v>0.03577833409738875</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01842756503410846</v>
+        <v>0.0298954639086777</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05555025109613927</v>
+        <v>0.04279607131673649</v>
       </c>
       <c r="Q17" s="5" t="n">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="R17" s="5" t="n">
-        <v>16491</v>
+        <v>137767</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9210</v>
+        <v>115839</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>25978</v>
+        <v>165368</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.0172542853518294</v>
+        <v>0.0198172671772201</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.009635812753374188</v>
+        <v>0.01666298222124377</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02718004972196738</v>
+        <v>0.0237875937039804</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0</v>
+        <v>3193</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
+        <v>3409145</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>3409145</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>3409145</v>
+      </c>
       <c r="G18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6" t="inlineStr"/>
-      <c r="I18" s="6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="J18" s="5" t="n">
-        <v>0</v>
+        <v>3284</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
+        <v>3542722</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>3542722</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>3542722</v>
+      </c>
       <c r="N18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="6" t="inlineStr"/>
-      <c r="P18" s="6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Q18" s="5" t="n">
-        <v>0</v>
+        <v>6477</v>
       </c>
       <c r="R18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" s="5" t="inlineStr"/>
-      <c r="T18" s="5" t="inlineStr"/>
+        <v>6951867</v>
+      </c>
+      <c r="S18" s="5" t="n">
+        <v>6951867</v>
+      </c>
+      <c r="T18" s="5" t="n">
+        <v>6951867</v>
+      </c>
       <c r="U18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" s="6" t="inlineStr"/>
-      <c r="W18" s="6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="V18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>461</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>503023</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>503023</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>503023</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>412</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>452736</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>452736</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>452736</v>
-      </c>
-      <c r="N19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="5" t="n">
-        <v>873</v>
-      </c>
-      <c r="R19" s="5" t="n">
-        <v>955758</v>
-      </c>
-      <c r="S19" s="5" t="n">
-        <v>955758</v>
-      </c>
-      <c r="T19" s="5" t="n">
-        <v>955758</v>
-      </c>
-      <c r="U19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>3182</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>3398131</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>3390184</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>3403237</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>0.9967691835180658</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>0.994438090757946</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>0.9982669694190631</v>
-      </c>
-      <c r="J20" s="5" t="n">
-        <v>3168</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>3415969</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>3391107</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>3436811</v>
-      </c>
-      <c r="N20" s="6" t="n">
-        <v>0.9642216659026113</v>
-      </c>
-      <c r="O20" s="6" t="n">
-        <v>0.9572039286832633</v>
-      </c>
-      <c r="P20" s="6" t="n">
-        <v>0.9701045360913222</v>
-      </c>
-      <c r="Q20" s="5" t="n">
-        <v>6350</v>
-      </c>
-      <c r="R20" s="5" t="n">
-        <v>6814100</v>
-      </c>
-      <c r="S20" s="5" t="n">
-        <v>6786499</v>
-      </c>
-      <c r="T20" s="5" t="n">
-        <v>6836028</v>
-      </c>
-      <c r="U20" s="6" t="n">
-        <v>0.9801827328227799</v>
-      </c>
-      <c r="V20" s="6" t="n">
-        <v>0.9762124062960198</v>
-      </c>
-      <c r="W20" s="6" t="n">
-        <v>0.9833370177787565</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>11014</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>5908</v>
-      </c>
-      <c r="F21" s="5" t="n">
-        <v>18961</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>0.003230816481934204</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>0.001733030580936886</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <v>0.00556190924205387</v>
-      </c>
-      <c r="J21" s="5" t="n">
-        <v>116</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>126753</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>105911</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>151615</v>
-      </c>
-      <c r="N21" s="6" t="n">
-        <v>0.03577833409738875</v>
-      </c>
-      <c r="O21" s="6" t="n">
-        <v>0.0298954639086777</v>
-      </c>
-      <c r="P21" s="6" t="n">
-        <v>0.04279607131673649</v>
-      </c>
-      <c r="Q21" s="5" t="n">
-        <v>127</v>
-      </c>
-      <c r="R21" s="5" t="n">
-        <v>137767</v>
-      </c>
-      <c r="S21" s="5" t="n">
-        <v>115839</v>
-      </c>
-      <c r="T21" s="5" t="n">
-        <v>165368</v>
-      </c>
-      <c r="U21" s="6" t="n">
-        <v>0.0198172671772201</v>
-      </c>
-      <c r="V21" s="6" t="n">
-        <v>0.01666298222124377</v>
-      </c>
-      <c r="W21" s="6" t="n">
-        <v>0.0237875937039804</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6" t="inlineStr"/>
-      <c r="I22" s="6" t="inlineStr"/>
-      <c r="J22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" s="6" t="inlineStr"/>
-      <c r="P22" s="6" t="inlineStr"/>
-      <c r="Q22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" s="5" t="inlineStr"/>
-      <c r="T22" s="5" t="inlineStr"/>
-      <c r="U22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" s="6" t="inlineStr"/>
-      <c r="W22" s="6" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>3193</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>3409145</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>3409145</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>3409145</v>
-      </c>
-      <c r="G23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5" t="n">
-        <v>3284</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>3542722</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>3542722</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>3542722</v>
-      </c>
-      <c r="N23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="5" t="n">
-        <v>6477</v>
-      </c>
-      <c r="R23" s="5" t="n">
-        <v>6951867</v>
-      </c>
-      <c r="S23" s="5" t="n">
-        <v>6951867</v>
-      </c>
-      <c r="T23" s="5" t="n">
-        <v>6951867</v>
-      </c>
-      <c r="U23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W23" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
@@ -2054,14 +1819,14 @@
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2073,7 +1838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2296,44 +2061,68 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
+        <v>487630</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>475942</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>493237</v>
+      </c>
       <c r="G4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6" t="inlineStr"/>
-      <c r="I4" s="6" t="inlineStr"/>
+        <v>0.9815960183522844</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.9580682748309473</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.9928815073039733</v>
+      </c>
       <c r="J4" s="5" t="n">
-        <v>0</v>
+        <v>778</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
+        <v>568447</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>555183</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>579121</v>
+      </c>
       <c r="N4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6" t="inlineStr"/>
-      <c r="P4" s="6" t="inlineStr"/>
+        <v>0.9136757297368248</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0.892355922847293</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.9308314430472088</v>
+      </c>
       <c r="Q4" s="5" t="n">
-        <v>0</v>
+        <v>1224</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="5" t="inlineStr"/>
-      <c r="T4" s="5" t="inlineStr"/>
+        <v>1056077</v>
+      </c>
+      <c r="S4" s="5" t="n">
+        <v>1040483</v>
+      </c>
+      <c r="T4" s="5" t="n">
+        <v>1070110</v>
+      </c>
       <c r="U4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="6" t="inlineStr"/>
-      <c r="W4" s="6" t="inlineStr"/>
+        <v>0.9438304853067437</v>
+      </c>
+      <c r="V4" s="6" t="n">
+        <v>0.9298937804133676</v>
+      </c>
+      <c r="W4" s="6" t="n">
+        <v>0.9563717973666184</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -2410,599 +2199,651 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>487630</v>
+        <v>496773</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>475942</v>
+        <v>496773</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>493237</v>
+        <v>496773</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9815960183522844</v>
+        <v>1</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9580682748309473</v>
+        <v>1</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9928815073039733</v>
+        <v>1</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>778</v>
+        <v>859</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>568447</v>
+        <v>622154</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>555183</v>
+        <v>622154</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>579121</v>
+        <v>622154</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.9136757297368248</v>
+        <v>1</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.892355922847293</v>
+        <v>1</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9308314430472088</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="5" t="n">
-        <v>1224</v>
+        <v>1312</v>
       </c>
       <c r="R6" s="5" t="n">
-        <v>1056077</v>
+        <v>1118927</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1040483</v>
+        <v>1118927</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1070110</v>
+        <v>1118927</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9438304853067437</v>
+        <v>1</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9298937804133676</v>
+        <v>1</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9563717973666184</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Con cierta/alguna dificultad</t>
+        </is>
+      </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>453</v>
+        <v>896</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>496773</v>
+        <v>947546</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>496773</v>
+        <v>940151</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>496773</v>
+        <v>953544</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1</v>
+        <v>0.9868860812269798</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1</v>
+        <v>0.9791845103777306</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1</v>
+        <v>0.9931328693714809</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>859</v>
+        <v>1463</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>622154</v>
+        <v>1022682</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>622154</v>
+        <v>1004652</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>622154</v>
+        <v>1036915</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1</v>
+        <v>0.9176487961621385</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>1</v>
+        <v>0.9014707831217921</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>1</v>
+        <v>0.9304202194130009</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>1312</v>
+        <v>2359</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>1118927</v>
+        <v>1970228</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1118927</v>
+        <v>1951095</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1118927</v>
+        <v>1985590</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>1</v>
+        <v>0.9496922680635013</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>1</v>
+        <v>0.9404700116131995</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>1</v>
+        <v>0.9570970555610409</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Con cierta/alguna dificultad</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
+        <v>12591</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>6593</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>19986</v>
+      </c>
       <c r="G8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6" t="inlineStr"/>
-      <c r="I8" s="6" t="inlineStr"/>
+        <v>0.01311391877302015</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.006867130628518963</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.02081548962226954</v>
+      </c>
       <c r="J8" s="5" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
+        <v>91777</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>77544</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>109807</v>
+      </c>
       <c r="N8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6" t="inlineStr"/>
-      <c r="P8" s="6" t="inlineStr"/>
+        <v>0.08235120383786172</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>0.06957978058699922</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>0.09852921687820786</v>
+      </c>
       <c r="Q8" s="5" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="5" t="inlineStr"/>
-      <c r="T8" s="5" t="inlineStr"/>
+        <v>104368</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <v>89006</v>
+      </c>
+      <c r="T8" s="5" t="n">
+        <v>123501</v>
+      </c>
       <c r="U8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="6" t="inlineStr"/>
-      <c r="W8" s="6" t="inlineStr"/>
+        <v>0.05030773193649872</v>
+      </c>
+      <c r="V8" s="6" t="n">
+        <v>0.04290294443895901</v>
+      </c>
+      <c r="W8" s="6" t="n">
+        <v>0.05952998838679965</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>14</v>
+        <v>910</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12591</v>
+        <v>960137</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6593</v>
+        <v>960137</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>19986</v>
+        <v>960137</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.01311391877302015</v>
+        <v>1</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.006867130628518963</v>
+        <v>1</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02081548962226954</v>
+        <v>1</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>142</v>
+        <v>1605</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>91777</v>
+        <v>1114459</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>77544</v>
+        <v>1114459</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>109807</v>
+        <v>1114459</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.08235120383786172</v>
+        <v>1</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06957978058699922</v>
+        <v>1</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09852921687820786</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="5" t="n">
-        <v>156</v>
+        <v>2515</v>
       </c>
       <c r="R9" s="5" t="n">
-        <v>104368</v>
+        <v>2074596</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>89006</v>
+        <v>2074596</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>123501</v>
+        <v>2074596</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.05030773193649872</v>
+        <v>1</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04290294443895901</v>
+        <v>1</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05952998838679965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Con cierta/alguna facilidad</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>896</v>
+        <v>1006</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>947546</v>
+        <v>1025026</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>940151</v>
+        <v>1014137</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>953544</v>
+        <v>1032357</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9868860812269798</v>
+        <v>0.9794996183054845</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9791845103777306</v>
+        <v>0.9690948220224195</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9931328693714809</v>
+        <v>0.9865051426130875</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>1463</v>
+        <v>1362</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>1022682</v>
+        <v>946914</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1004652</v>
+        <v>928882</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1036915</v>
+        <v>961724</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9176487961621385</v>
+        <v>0.9054440154781822</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9014707831217921</v>
+        <v>0.8882011074171876</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9304202194130009</v>
+        <v>0.9196055967630172</v>
       </c>
       <c r="Q10" s="5" t="n">
-        <v>2359</v>
+        <v>2368</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>1970228</v>
+        <v>1971941</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1951095</v>
+        <v>1952384</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1985590</v>
+        <v>1989832</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9496922680635013</v>
+        <v>0.9424838125682758</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9404700116131995</v>
+        <v>0.9331367432122216</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9570970555610409</v>
+        <v>0.9510350089052201</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>21453</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>14122</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>32342</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.02050038169451546</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.01349485738691263</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.03090517797758071</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>98887</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>84077</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>116919</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>0.09455598452181772</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>0.08039440323698269</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>0.1117988925828124</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>174</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>120340</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <v>102449</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>139897</v>
+      </c>
+      <c r="U11" s="6" t="n">
+        <v>0.0575161874317241</v>
+      </c>
+      <c r="V11" s="6" t="n">
+        <v>0.04896499109477979</v>
+      </c>
+      <c r="W11" s="6" t="n">
+        <v>0.06686325678777827</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" s="5" t="n">
-        <v>910</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>960137</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>960137</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>960137</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v>1605</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>1114459</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>1114459</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>1114459</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5" t="n">
-        <v>2515</v>
-      </c>
-      <c r="R11" s="5" t="n">
-        <v>2074596</v>
-      </c>
-      <c r="S11" s="5" t="n">
-        <v>2074596</v>
-      </c>
-      <c r="T11" s="5" t="n">
-        <v>2074596</v>
-      </c>
-      <c r="U11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Con cierta/alguna facilidad</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="C12" s="5" t="n">
+        <v>1029</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1046479</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1046479</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1046479</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>1513</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>1045801</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>1045801</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>1045801</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>2542</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>2092281</v>
+      </c>
+      <c r="S12" s="5" t="n">
+        <v>2092281</v>
+      </c>
+      <c r="T12" s="5" t="n">
+        <v>2092281</v>
+      </c>
+      <c r="U12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Con facilidad</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6" t="inlineStr"/>
-      <c r="I12" s="6" t="inlineStr"/>
-      <c r="J12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6" t="inlineStr"/>
-      <c r="P12" s="6" t="inlineStr"/>
-      <c r="Q12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="5" t="inlineStr"/>
-      <c r="T12" s="5" t="inlineStr"/>
-      <c r="U12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" s="6" t="inlineStr"/>
-      <c r="W12" s="6" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
       <c r="C13" s="5" t="n">
-        <v>23</v>
+        <v>929</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>21453</v>
+        <v>959542</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14122</v>
+        <v>949394</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32342</v>
+        <v>966053</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02050038169451546</v>
+        <v>0.9832086359657259</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01349485738691263</v>
+        <v>0.9728107592227367</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03090517797758071</v>
+        <v>0.9898801165373546</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>151</v>
+        <v>1192</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>98887</v>
+        <v>824519</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>84077</v>
+        <v>808396</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>116919</v>
+        <v>839200</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.09455598452181772</v>
+        <v>0.9078100561724133</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08039440323698269</v>
+        <v>0.8900579417733495</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1117988925828124</v>
+        <v>0.923973514031679</v>
       </c>
       <c r="Q13" s="5" t="n">
-        <v>174</v>
+        <v>2121</v>
       </c>
       <c r="R13" s="5" t="n">
-        <v>120340</v>
+        <v>1784061</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>102449</v>
+        <v>1764408</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>139897</v>
+        <v>1800245</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0575161874317241</v>
+        <v>0.9468634791102715</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04896499109477979</v>
+        <v>0.9364329828337585</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06686325678777827</v>
+        <v>0.9554528625289256</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1006</v>
+        <v>18</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1025026</v>
+        <v>16387</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1014137</v>
+        <v>9876</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1032357</v>
+        <v>26535</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9794996183054845</v>
+        <v>0.01679136403427405</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9690948220224195</v>
+        <v>0.01011988346264544</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9865051426130875</v>
+        <v>0.02718924077726305</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>1362</v>
+        <v>128</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>946914</v>
+        <v>83732</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>928882</v>
+        <v>69051</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>961724</v>
+        <v>99855</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9054440154781822</v>
+        <v>0.09218994382758666</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8882011074171876</v>
+        <v>0.07602648596832026</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9196055967630172</v>
+        <v>0.1099420582266501</v>
       </c>
       <c r="Q14" s="5" t="n">
-        <v>2368</v>
+        <v>146</v>
       </c>
       <c r="R14" s="5" t="n">
-        <v>1971941</v>
+        <v>100119</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1952384</v>
+        <v>83935</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1989832</v>
+        <v>119772</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9424838125682758</v>
+        <v>0.0531365208897286</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9331367432122216</v>
+        <v>0.04454713747107442</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9510350089052201</v>
+        <v>0.06356701716624145</v>
       </c>
     </row>
     <row r="15">
@@ -3013,16 +2854,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1029</v>
+        <v>947</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1046479</v>
+        <v>975929</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1046479</v>
+        <v>975929</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1046479</v>
+        <v>975929</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>1</v>
@@ -3034,16 +2875,16 @@
         <v>1</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>1513</v>
+        <v>1320</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>1045801</v>
+        <v>908251</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1045801</v>
+        <v>908251</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>1045801</v>
+        <v>908251</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>1</v>
@@ -3055,16 +2896,16 @@
         <v>1</v>
       </c>
       <c r="Q15" s="5" t="n">
-        <v>2542</v>
+        <v>2267</v>
       </c>
       <c r="R15" s="5" t="n">
-        <v>2092281</v>
+        <v>1884180</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2092281</v>
+        <v>1884180</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>2092281</v>
+        <v>1884180</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>1</v>
@@ -3079,7 +2920,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Con facilidad</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -3088,44 +2929,68 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0</v>
+        <v>3277</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
+        <v>3419744</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>3401124</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>3433671</v>
+      </c>
       <c r="G16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6" t="inlineStr"/>
-      <c r="I16" s="6" t="inlineStr"/>
+        <v>0.9828776329182567</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.9775259688734892</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.9868805289915374</v>
+      </c>
       <c r="J16" s="5" t="n">
-        <v>0</v>
+        <v>4795</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
+        <v>3362564</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>3331202</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>3389978</v>
+      </c>
       <c r="N16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="6" t="inlineStr"/>
-      <c r="P16" s="6" t="inlineStr"/>
+        <v>0.9110993869519097</v>
+      </c>
+      <c r="O16" s="6" t="n">
+        <v>0.9026019124490444</v>
+      </c>
+      <c r="P16" s="6" t="n">
+        <v>0.9185275347560196</v>
+      </c>
       <c r="Q16" s="5" t="n">
-        <v>0</v>
+        <v>8072</v>
       </c>
       <c r="R16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="5" t="inlineStr"/>
-      <c r="T16" s="5" t="inlineStr"/>
+        <v>6782307</v>
+      </c>
+      <c r="S16" s="5" t="n">
+        <v>6746544</v>
+      </c>
+      <c r="T16" s="5" t="n">
+        <v>6816279</v>
+      </c>
       <c r="U16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" s="6" t="inlineStr"/>
-      <c r="W16" s="6" t="inlineStr"/>
+        <v>0.9459306183117042</v>
+      </c>
+      <c r="V16" s="6" t="n">
+        <v>0.940942631997124</v>
+      </c>
+      <c r="W16" s="6" t="n">
+        <v>0.9506686676315173</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -3135,477 +3000,142 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>16387</v>
+        <v>59574</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9876</v>
+        <v>45647</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26535</v>
+        <v>78194</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.01679136403427405</v>
+        <v>0.01712236708174339</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01011988346264544</v>
+        <v>0.01311947100846252</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02718924077726305</v>
+        <v>0.02247403112651074</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>128</v>
+        <v>502</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>83732</v>
+        <v>328102</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>69051</v>
+        <v>300688</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>99855</v>
+        <v>359464</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.09218994382758666</v>
+        <v>0.0889006130480904</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07602648596832026</v>
+        <v>0.08147246524398061</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1099420582266501</v>
+        <v>0.09739808755095558</v>
       </c>
       <c r="Q17" s="5" t="n">
-        <v>146</v>
+        <v>564</v>
       </c>
       <c r="R17" s="5" t="n">
-        <v>100119</v>
+        <v>387677</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>83935</v>
+        <v>353705</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>119772</v>
+        <v>423440</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.0531365208897286</v>
+        <v>0.05406938168829572</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04454713747107442</v>
+        <v>0.04933133236848267</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06356701716624145</v>
+        <v>0.05905736800287594</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>929</v>
+        <v>3339</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>959542</v>
+        <v>3479318</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>949394</v>
+        <v>3479318</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>966053</v>
+        <v>3479318</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9832086359657259</v>
+        <v>1</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9728107592227367</v>
+        <v>1</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9898801165373546</v>
+        <v>1</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1192</v>
+        <v>5297</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>824519</v>
+        <v>3690666</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>808396</v>
+        <v>3690666</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>839200</v>
+        <v>3690666</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.9078100561724133</v>
+        <v>1</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8900579417733495</v>
+        <v>1</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.923973514031679</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="5" t="n">
-        <v>2121</v>
+        <v>8636</v>
       </c>
       <c r="R18" s="5" t="n">
-        <v>1784061</v>
+        <v>7169984</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1764408</v>
+        <v>7169984</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1800245</v>
+        <v>7169984</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.9468634791102715</v>
+        <v>1</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9364329828337585</v>
+        <v>1</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9554528625289256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>947</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>975929</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>975929</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>975929</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>1320</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>908251</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>908251</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>908251</v>
-      </c>
-      <c r="N19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="5" t="n">
-        <v>2267</v>
-      </c>
-      <c r="R19" s="5" t="n">
-        <v>1884180</v>
-      </c>
-      <c r="S19" s="5" t="n">
-        <v>1884180</v>
-      </c>
-      <c r="T19" s="5" t="n">
-        <v>1884180</v>
-      </c>
-      <c r="U19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6" t="inlineStr"/>
-      <c r="I20" s="6" t="inlineStr"/>
-      <c r="J20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="6" t="inlineStr"/>
-      <c r="P20" s="6" t="inlineStr"/>
-      <c r="Q20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="5" t="inlineStr"/>
-      <c r="T20" s="5" t="inlineStr"/>
-      <c r="U20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" s="6" t="inlineStr"/>
-      <c r="W20" s="6" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>62</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>59574</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>45647</v>
-      </c>
-      <c r="F21" s="5" t="n">
-        <v>78194</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>0.01712236708174339</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>0.01311947100846252</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <v>0.02247403112651074</v>
-      </c>
-      <c r="J21" s="5" t="n">
-        <v>502</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>328102</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>300688</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>359464</v>
-      </c>
-      <c r="N21" s="6" t="n">
-        <v>0.0889006130480904</v>
-      </c>
-      <c r="O21" s="6" t="n">
-        <v>0.08147246524398061</v>
-      </c>
-      <c r="P21" s="6" t="n">
-        <v>0.09739808755095558</v>
-      </c>
-      <c r="Q21" s="5" t="n">
-        <v>564</v>
-      </c>
-      <c r="R21" s="5" t="n">
-        <v>387677</v>
-      </c>
-      <c r="S21" s="5" t="n">
-        <v>353705</v>
-      </c>
-      <c r="T21" s="5" t="n">
-        <v>423440</v>
-      </c>
-      <c r="U21" s="6" t="n">
-        <v>0.05406938168829572</v>
-      </c>
-      <c r="V21" s="6" t="n">
-        <v>0.04933133236848267</v>
-      </c>
-      <c r="W21" s="6" t="n">
-        <v>0.05905736800287594</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>3277</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>3419744</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>3401124</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>3433671</v>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v>0.9828776329182567</v>
-      </c>
-      <c r="H22" s="6" t="n">
-        <v>0.9775259688734892</v>
-      </c>
-      <c r="I22" s="6" t="n">
-        <v>0.9868805289915374</v>
-      </c>
-      <c r="J22" s="5" t="n">
-        <v>4795</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>3362564</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>3331202</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>3389978</v>
-      </c>
-      <c r="N22" s="6" t="n">
-        <v>0.9110993869519097</v>
-      </c>
-      <c r="O22" s="6" t="n">
-        <v>0.9026019124490444</v>
-      </c>
-      <c r="P22" s="6" t="n">
-        <v>0.9185275347560196</v>
-      </c>
-      <c r="Q22" s="5" t="n">
-        <v>8072</v>
-      </c>
-      <c r="R22" s="5" t="n">
-        <v>6782307</v>
-      </c>
-      <c r="S22" s="5" t="n">
-        <v>6746544</v>
-      </c>
-      <c r="T22" s="5" t="n">
-        <v>6816279</v>
-      </c>
-      <c r="U22" s="6" t="n">
-        <v>0.9459306183117042</v>
-      </c>
-      <c r="V22" s="6" t="n">
-        <v>0.940942631997124</v>
-      </c>
-      <c r="W22" s="6" t="n">
-        <v>0.9506686676315173</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>3339</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>3479318</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>3479318</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>3479318</v>
-      </c>
-      <c r="G23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5" t="n">
-        <v>5297</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>3690666</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>3690666</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>3690666</v>
-      </c>
-      <c r="N23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="5" t="n">
-        <v>8636</v>
-      </c>
-      <c r="R23" s="5" t="n">
-        <v>7169984</v>
-      </c>
-      <c r="S23" s="5" t="n">
-        <v>7169984</v>
-      </c>
-      <c r="T23" s="5" t="n">
-        <v>7169984</v>
-      </c>
-      <c r="U23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W23" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
@@ -3614,14 +3144,14 @@
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/P1435_2011_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1435_2011_2023-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>1039924</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1034056</v>
+        <v>1034494</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1042882</v>
+        <v>1042879</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9961577402880997</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9905366433899913</v>
+        <v>0.9909564035962887</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9989910194854693</v>
+        <v>0.9989884764195514</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>993</v>
@@ -763,19 +763,19 @@
         <v>1078690</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1064129</v>
+        <v>1064659</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1089543</v>
+        <v>1089888</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9631782901294266</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.950176074571932</v>
+        <v>0.950649277316661</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9728689394367613</v>
+        <v>0.973176716175106</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1967</v>
@@ -784,19 +784,19 @@
         <v>2118614</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2103392</v>
+        <v>2102852</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2131370</v>
+        <v>2130466</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9790889060854082</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9720542469867141</v>
+        <v>0.971804404399053</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9849836873405353</v>
+        <v>0.9845661612960209</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>4011</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9879</v>
+        <v>9441</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.003842259711900285</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001008980514530701</v>
+        <v>0.001011523580448716</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.009463356610008772</v>
+        <v>0.009043596403711269</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>38</v>
@@ -834,19 +834,19 @@
         <v>41238</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30385</v>
+        <v>30040</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>55799</v>
+        <v>55269</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03682170987057344</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02713106056323865</v>
+        <v>0.02682328382489395</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04982392542806787</v>
+        <v>0.04935072268333893</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>42</v>
@@ -855,19 +855,19 @@
         <v>45249</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>32493</v>
+        <v>33397</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>60471</v>
+        <v>61011</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02091109391459173</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01501631265946488</v>
+        <v>0.01543383870397908</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0279457530132859</v>
+        <v>0.02819559560094712</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>972979</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>966766</v>
+        <v>966632</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>976031</v>
+        <v>976039</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.995809927389776</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9894514014344168</v>
+        <v>0.9893139265992983</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9989334622976058</v>
+        <v>0.9989419784785663</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>989</v>
@@ -980,19 +980,19 @@
         <v>1059940</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1044745</v>
+        <v>1046387</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1069924</v>
+        <v>1070352</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9686344700802119</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.954748430149123</v>
+        <v>0.9562488264889168</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9777582657647673</v>
+        <v>0.9781497384280671</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1909</v>
@@ -1001,19 +1001,19 @@
         <v>2032919</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2015881</v>
+        <v>2018118</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2044106</v>
+        <v>2044236</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9814534493888344</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9732278830321283</v>
+        <v>0.9743080573199397</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9868542200097807</v>
+        <v>0.9869170643208657</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>4094</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10307</v>
+        <v>10441</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.004190072610223996</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001066537702394193</v>
+        <v>0.001058021521433775</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01054859856558323</v>
+        <v>0.01068607340070176</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>31</v>
@@ -1051,19 +1051,19 @@
         <v>34322</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>24338</v>
+        <v>23910</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>49517</v>
+        <v>47875</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03136552991978812</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02224173423523267</v>
+        <v>0.02185026157193295</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04525156985087645</v>
+        <v>0.04375117351108296</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>35</v>
@@ -1072,19 +1072,19 @@
         <v>38416</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>27229</v>
+        <v>27099</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>55454</v>
+        <v>53217</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01854655061116565</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01314577999021935</v>
+        <v>0.01308293567913422</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0267721169678717</v>
+        <v>0.02569194268006023</v>
       </c>
     </row>
     <row r="9">
@@ -1176,7 +1176,7 @@
         <v>883147</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>878205</v>
+        <v>877332</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>885115</v>
@@ -1185,7 +1185,7 @@
         <v>0.9977764467964277</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9921933665134504</v>
+        <v>0.991206774559976</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1197,19 +1197,19 @@
         <v>840153</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>828402</v>
+        <v>826812</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>851259</v>
+        <v>851030</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9593020185755623</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9458848923330315</v>
+        <v>0.9440686276286085</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9719833309716072</v>
+        <v>0.9717215142016989</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1616</v>
@@ -1218,19 +1218,19 @@
         <v>1723300</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1709436</v>
+        <v>1707846</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1734473</v>
+        <v>1733770</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9786410424211919</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9707677997446703</v>
+        <v>0.9698651436191768</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9849863656499679</v>
+        <v>0.9845867252413003</v>
       </c>
     </row>
     <row r="11">
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6910</v>
+        <v>7783</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.002223553203572236</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.007806633486549686</v>
+        <v>0.008793225440024147</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>33</v>
@@ -1268,19 +1268,19 @@
         <v>35643</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>24537</v>
+        <v>24766</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>47394</v>
+        <v>48984</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04069798142443769</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02801666902839291</v>
+        <v>0.02827848579830099</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05411510766696847</v>
+        <v>0.05593137237139138</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>35</v>
@@ -1289,19 +1289,19 @@
         <v>37611</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>26438</v>
+        <v>27141</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>51475</v>
+        <v>53065</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02135895757880808</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01501363435003218</v>
+        <v>0.01541327475869952</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02923220025532973</v>
+        <v>0.03013485638082324</v>
       </c>
     </row>
     <row r="12">
@@ -1393,7 +1393,7 @@
         <v>502082</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>498271</v>
+        <v>498302</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>503023</v>
@@ -1402,7 +1402,7 @@
         <v>0.9981290152333512</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9905522815661854</v>
+        <v>0.9906154418122527</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1</v>
@@ -1414,19 +1414,19 @@
         <v>437186</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>427586</v>
+        <v>426263</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>444393</v>
+        <v>443735</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.965653731857802</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9444497489038607</v>
+        <v>0.9415261407307826</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9815724349658915</v>
+        <v>0.980118492558771</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>858</v>
@@ -1435,19 +1435,19 @@
         <v>939267</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>929780</v>
+        <v>929945</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>946548</v>
+        <v>945831</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9827457146481706</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9728199502780329</v>
+        <v>0.9729923067574314</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9903641872466259</v>
+        <v>0.9896135097573203</v>
       </c>
     </row>
     <row r="14">
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4752</v>
+        <v>4721</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001870984766648812</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.009447718433814685</v>
+        <v>0.009384558187747308</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -1485,19 +1485,19 @@
         <v>15550</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8343</v>
+        <v>9001</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25150</v>
+        <v>26473</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03434626814219798</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01842756503410846</v>
+        <v>0.01988150744122896</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05555025109613927</v>
+        <v>0.05847385926921742</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -1506,19 +1506,19 @@
         <v>16491</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9210</v>
+        <v>9927</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>25978</v>
+        <v>25813</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0172542853518294</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009635812753374188</v>
+        <v>0.01038649024267971</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02718004972196738</v>
+        <v>0.02700769324256897</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>3398131</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3390184</v>
+        <v>3390143</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3403237</v>
+        <v>3403235</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9967691835180658</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.994438090757946</v>
+        <v>0.9944261690673748</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9982669694190631</v>
+        <v>0.9982665089252786</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3168</v>
@@ -1631,19 +1631,19 @@
         <v>3415969</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3391107</v>
+        <v>3389399</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3436811</v>
+        <v>3436728</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9642216659026113</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9572039286832633</v>
+        <v>0.9567217601870714</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9701045360913222</v>
+        <v>0.9700810957171945</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6350</v>
@@ -1652,19 +1652,19 @@
         <v>6814100</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6786499</v>
+        <v>6789195</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6836028</v>
+        <v>6836817</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9801827328227799</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9762124062960198</v>
+        <v>0.9766002924947431</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9833370177787565</v>
+        <v>0.9834504433222715</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>11014</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5908</v>
+        <v>5910</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18961</v>
+        <v>19002</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.003230816481934204</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001733030580936886</v>
+        <v>0.001733491074721525</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.00556190924205387</v>
+        <v>0.005573830932625388</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>116</v>
@@ -1702,19 +1702,19 @@
         <v>126753</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>105911</v>
+        <v>105994</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>151615</v>
+        <v>153323</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03577833409738875</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0298954639086777</v>
+        <v>0.02991890428280539</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04279607131673649</v>
+        <v>0.04327823981292828</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>127</v>
@@ -1723,19 +1723,19 @@
         <v>137767</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>115839</v>
+        <v>115050</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>165368</v>
+        <v>162672</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0198172671772201</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01666298222124377</v>
+        <v>0.01654955667772849</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0237875937039804</v>
+        <v>0.02339970750525684</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>487630</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>475942</v>
+        <v>474877</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>493237</v>
+        <v>493177</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9815960183522844</v>
+        <v>0.9815960183522846</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9580682748309473</v>
+        <v>0.9559236409710145</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9928815073039733</v>
+        <v>0.9927615803983464</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>778</v>
@@ -2088,19 +2088,19 @@
         <v>568447</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>555183</v>
+        <v>554821</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>579121</v>
+        <v>579570</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9136757297368248</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.892355922847293</v>
+        <v>0.8917744058276982</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9308314430472088</v>
+        <v>0.9315540163880247</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1224</v>
@@ -2109,19 +2109,19 @@
         <v>1056077</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1040483</v>
+        <v>1040341</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1070110</v>
+        <v>1069359</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9438304853067437</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9298937804133676</v>
+        <v>0.929766931426551</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9563717973666184</v>
+        <v>0.9556999810941458</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>9143</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3536</v>
+        <v>3596</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20831</v>
+        <v>21896</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01840398164771558</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.007118492696026817</v>
+        <v>0.007238419601653691</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04193172516905274</v>
+        <v>0.04407635902898566</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>81</v>
@@ -2159,19 +2159,19 @@
         <v>53707</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43033</v>
+        <v>42584</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>66971</v>
+        <v>67333</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08632427026317534</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06916855695279123</v>
+        <v>0.06844598361197522</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1076440771527069</v>
+        <v>0.1082255941723019</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>88</v>
@@ -2180,19 +2180,19 @@
         <v>62850</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>48817</v>
+        <v>49568</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>78444</v>
+        <v>78586</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05616951469325625</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04362820263338164</v>
+        <v>0.04430001890585409</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07010621958663238</v>
+        <v>0.07023306857344848</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>947546</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>940151</v>
+        <v>939407</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>953544</v>
+        <v>953287</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.9868860812269798</v>
+        <v>0.98688608122698</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9791845103777306</v>
+        <v>0.9784091871928121</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9931328693714809</v>
+        <v>0.9928653146107346</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1463</v>
@@ -2305,19 +2305,19 @@
         <v>1022682</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1004652</v>
+        <v>1004875</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1036915</v>
+        <v>1036861</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9176487961621385</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9014707831217921</v>
+        <v>0.901670600260413</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9304202194130009</v>
+        <v>0.9303716199415799</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2359</v>
@@ -2326,19 +2326,19 @@
         <v>1970228</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1951095</v>
+        <v>1951415</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1985590</v>
+        <v>1985507</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.9496922680635013</v>
+        <v>0.9496922680635012</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9404700116131995</v>
+        <v>0.9406243336126049</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9570970555610409</v>
+        <v>0.9570569457888061</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>12591</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6593</v>
+        <v>6850</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19986</v>
+        <v>20730</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01311391877302015</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.006867130628518963</v>
+        <v>0.007134685389265342</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02081548962226954</v>
+        <v>0.02159081280718797</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>142</v>
@@ -2376,19 +2376,19 @@
         <v>91777</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>77544</v>
+        <v>77598</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>109807</v>
+        <v>109584</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08235120383786172</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06957978058699922</v>
+        <v>0.06962838005842004</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09852921687820786</v>
+        <v>0.09832939973958696</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>156</v>
@@ -2397,19 +2397,19 @@
         <v>104368</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>89006</v>
+        <v>89089</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>123501</v>
+        <v>123181</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.05030773193649872</v>
+        <v>0.05030773193649873</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04290294443895901</v>
+        <v>0.04294305421119369</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05952998838679965</v>
+        <v>0.05937566638739497</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>1025026</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1014137</v>
+        <v>1014850</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1032357</v>
+        <v>1032905</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9794996183054845</v>
+        <v>0.9794996183054846</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9690948220224195</v>
+        <v>0.9697758079935029</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9865051426130875</v>
+        <v>0.9870292165687925</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1362</v>
@@ -2522,19 +2522,19 @@
         <v>946914</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>928882</v>
+        <v>930455</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>961724</v>
+        <v>962388</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9054440154781822</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8882011074171876</v>
+        <v>0.8897058354787845</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9196055967630172</v>
+        <v>0.920240380273408</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2368</v>
@@ -2543,19 +2543,19 @@
         <v>1971941</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1952384</v>
+        <v>1952980</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1989832</v>
+        <v>1990086</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9424838125682758</v>
+        <v>0.9424838125682761</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9331367432122216</v>
+        <v>0.9334213989106795</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9510350089052201</v>
+        <v>0.9511564131062072</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>21453</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14122</v>
+        <v>13574</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>32342</v>
+        <v>31629</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02050038169451546</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01349485738691263</v>
+        <v>0.01297078343120753</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03090517797758071</v>
+        <v>0.03022419200649717</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>151</v>
@@ -2593,19 +2593,19 @@
         <v>98887</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>84077</v>
+        <v>83413</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>116919</v>
+        <v>115346</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.09455598452181772</v>
+        <v>0.09455598452181771</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08039440323698269</v>
+        <v>0.07975961972659196</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1117988925828124</v>
+        <v>0.1102941645212155</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>174</v>
@@ -2614,19 +2614,19 @@
         <v>120340</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>102449</v>
+        <v>102195</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>139897</v>
+        <v>139301</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.0575161874317241</v>
+        <v>0.05751618743172411</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04896499109477979</v>
+        <v>0.04884358689379275</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06686325678777827</v>
+        <v>0.06657860108932065</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>959542</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>949394</v>
+        <v>949966</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>966053</v>
+        <v>966773</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9832086359657259</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9728107592227367</v>
+        <v>0.9733969358322515</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9898801165373546</v>
+        <v>0.9906179944857845</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1192</v>
@@ -2739,19 +2739,19 @@
         <v>824519</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>808396</v>
+        <v>808797</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>839200</v>
+        <v>838323</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.9078100561724133</v>
+        <v>0.9078100561724135</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8900579417733495</v>
+        <v>0.8904997182111779</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.923973514031679</v>
+        <v>0.9230079795107228</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2121</v>
@@ -2760,19 +2760,19 @@
         <v>1784061</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1764408</v>
+        <v>1764055</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1800245</v>
+        <v>1800524</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.9468634791102715</v>
+        <v>0.9468634791102712</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9364329828337585</v>
+        <v>0.9362454581539716</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9554528625289256</v>
+        <v>0.955600915911084</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>16387</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9876</v>
+        <v>9156</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26535</v>
+        <v>25963</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01679136403427405</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01011988346264544</v>
+        <v>0.009382005514215698</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02718924077726305</v>
+        <v>0.0266030641677488</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>128</v>
@@ -2810,19 +2810,19 @@
         <v>83732</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>69051</v>
+        <v>69928</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>99855</v>
+        <v>99454</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.09218994382758666</v>
+        <v>0.09218994382758665</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07602648596832026</v>
+        <v>0.07699202048927781</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1099420582266501</v>
+        <v>0.1095002817888221</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>146</v>
@@ -2831,19 +2831,19 @@
         <v>100119</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>83935</v>
+        <v>83656</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>119772</v>
+        <v>120125</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.0531365208897286</v>
+        <v>0.05313652088972859</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04454713747107442</v>
+        <v>0.04439908408891596</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06356701716624145</v>
+        <v>0.06375454184602833</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>3419744</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3401124</v>
+        <v>3401385</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3433671</v>
+        <v>3434727</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9828776329182567</v>
+        <v>0.9828776329182566</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9775259688734892</v>
+        <v>0.9776010614044515</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9868805289915374</v>
+        <v>0.9871840902718139</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4795</v>
@@ -2956,19 +2956,19 @@
         <v>3362564</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3331202</v>
+        <v>3328253</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3389978</v>
+        <v>3389197</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9110993869519097</v>
+        <v>0.9110993869519096</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9026019124490444</v>
+        <v>0.901802689903167</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9185275347560196</v>
+        <v>0.9183158831125449</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8072</v>
@@ -2977,19 +2977,19 @@
         <v>6782307</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6746544</v>
+        <v>6749011</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6816279</v>
+        <v>6816044</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9459306183117042</v>
+        <v>0.9459306183117043</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.940942631997124</v>
+        <v>0.9412868259162354</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9506686676315173</v>
+        <v>0.9506358520150542</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>59574</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>45647</v>
+        <v>44591</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>78194</v>
+        <v>77933</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01712236708174339</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01311947100846252</v>
+        <v>0.01281590972818606</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02247403112651074</v>
+        <v>0.02239893859554812</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>502</v>
@@ -3027,19 +3027,19 @@
         <v>328102</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>300688</v>
+        <v>301469</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>359464</v>
+        <v>362413</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.0889006130480904</v>
+        <v>0.08890061304809038</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08147246524398061</v>
+        <v>0.08168411688745486</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09739808755095558</v>
+        <v>0.09819731009683287</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>564</v>
@@ -3048,19 +3048,19 @@
         <v>387677</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>353705</v>
+        <v>353940</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>423440</v>
+        <v>420973</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05406938168829572</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04933133236848267</v>
+        <v>0.04936414798494582</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05905736800287594</v>
+        <v>0.05871317408376473</v>
       </c>
     </row>
     <row r="18">
